--- a/SCRUM_tasks.xlsx
+++ b/SCRUM_tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebbe\github\C#\inlämning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebbe\github\C#\inlämning\GruppInlUppg\snakeUppgift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3917C9F-D308-45F4-9A0B-411BBF21D256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E699DC-F852-4C2C-8F14-6AE6D8B8D782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Todo</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Vid problem, lägg den i HOLD och beskriv problemet annars lägger du den i review när den är klar</t>
+  </si>
+  <si>
+    <t>Konfigurera Console-fönstret enligt världens storlek</t>
+  </si>
+  <si>
+    <t>Rendera spelvärlden (och poängräkningen)</t>
+  </si>
+  <si>
+    <t>i ConsoleRenderer.cs</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +255,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
@@ -250,6 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Anteckning" xfId="4" builtinId="10"/>
@@ -539,7 +555,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,8 +617,12 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -633,8 +653,12 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -802,7 +826,7 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1"/>
@@ -826,7 +850,7 @@
     </row>
     <row r="17" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1"/>
@@ -852,7 +876,7 @@
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1"/>
@@ -876,7 +900,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1"/>

--- a/SCRUM_tasks.xlsx
+++ b/SCRUM_tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebbe\github\C#\inlämning\GruppInlUppg\snakeUppgift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E699DC-F852-4C2C-8F14-6AE6D8B8D782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBBFB2-B60F-43C1-916E-746E561678B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Todo</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>i ConsoleRenderer.cs</t>
+  </si>
+  <si>
+    <t>Röd = Sebbe</t>
   </si>
 </sst>
 </file>
@@ -552,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,6 +925,11 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SCRUM_tasks.xlsx
+++ b/SCRUM_tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebbe\github\C#\inlämning\GruppInlUppg\snakeUppgift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenny\Documents\GitHub\snakeUppgift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBBFB2-B60F-43C1-916E-746E561678B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0000DC0-02D3-4E4F-BC83-FA60528A4850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="13596" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Todo</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Röd = Sebbe</t>
+  </si>
+  <si>
+    <t>Blå = Jenny</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,6 +933,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SCRUM_tasks.xlsx
+++ b/SCRUM_tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenny\Documents\GitHub\snakeUppgift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias Parnebrant\source\repos\snakeUppgift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0000DC0-02D3-4E4F-BC83-FA60528A4850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB6788-FE2B-44CC-AE25-734A30D8348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="13596" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="0" windowWidth="17328" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Todo</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>Blå = Jenny</t>
+  </si>
+  <si>
+    <t>Orange = Tobbe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +161,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +270,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
@@ -272,6 +281,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Anteckning" xfId="4" builtinId="10"/>
@@ -558,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,6 +948,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
